--- a/Rating Curve/LaJara_RatingCurve_Definitive.xlsx
+++ b/Rating Curve/LaJara_RatingCurve_Definitive.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\La_Jara\Rating Curve\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\La_Jara\Rating Curve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D85569-B87E-4C76-A67D-50345F1B4E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7F0995-B41B-4A37-8ED9-81BE3B0B0768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-16020" yWindow="3150" windowWidth="10500" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="360" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>Discharge (m3/s)</t>
   </si>
@@ -45,6 +45,24 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>WSE P2 (m)</t>
+  </si>
+  <si>
+    <t>WSE P3 (m)</t>
+  </si>
+  <si>
+    <t>* Divers were not installed yet</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>P2 - 2723</t>
+  </si>
+  <si>
+    <t>P3 - 2724</t>
   </si>
 </sst>
 </file>
@@ -55,7 +73,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +101,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -104,27 +145,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -142,102 +168,65 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -255,6 +244,2268 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>P2C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.28238658029719294"/>
+                  <c:y val="-2.5160066820838115E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-AR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$5:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.11483039954009655</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11891567065003983</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11988867161016969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12824581676022717</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13252435519007122</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13232442348999029</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12239585896986682</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13523147425985371</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13115286753009059</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13465167232016029</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.31430056299999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22954535499999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24720269</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60034938999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65685286199999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93230728799999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65861859550000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3295973255</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1053491710000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5344224115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-22FE-4639-BFE0-E7DC25DE85F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="212613951"/>
+        <c:axId val="1372551295"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="212613951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>WSE (m) +2723</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1372551295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1372551295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Q (cfs)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="212613951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>P3C</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.28238658029719294"/>
+                  <c:y val="-2.5160066820838115E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-AR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$5:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.21938195136999639</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18769277655019323</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21160460815008264</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22928856722001001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23492664122977658</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23959504648018992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22823864550991857</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24281366660989079</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23756545941978402</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.24340346513008626</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.31430056299999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22954535499999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24720269</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60034938999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65685286199999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93230728799999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65861859550000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3295973255</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1053491710000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5344224115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-86A3-4CB7-9DC3-FC95EB50F666}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="212613951"/>
+        <c:axId val="1372551295"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="212613951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.18000000000000002"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>WSE (m) +2724</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1372551295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1372551295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Q (cfs)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="212613951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>450430</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>93760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>601069</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>122700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00C3C2C5-CC3E-FE89-FF0E-FA94129C8328}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>854766</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342796</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>148210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA52052C-7EE9-481A-BB9D-E1B1E73C97D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -520,189 +2771,369 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>44401.625</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>1.3299999999999999E-2</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="13">
         <f>B2*35.31467</f>
         <v>0.46968511099999999</v>
       </c>
+      <c r="D2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>44403.736111111109</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>2.3900000000000001E-2</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="13">
         <f t="shared" ref="C3:C14" si="0">B3*35.31467</f>
         <v>0.84402061299999998</v>
       </c>
+      <c r="D3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>44404.800000000003</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>2.6100000000000002E-2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="13">
         <f t="shared" si="0"/>
         <v>0.92171288700000009</v>
       </c>
+      <c r="D4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>44415.854166666664</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="2">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="13">
         <f t="shared" si="0"/>
         <v>0.31430056299999998</v>
       </c>
+      <c r="D5" s="1">
+        <v>2723.1148303995401</v>
+      </c>
+      <c r="E5" s="15">
+        <v>2724.21938195137</v>
+      </c>
+      <c r="F5" s="1">
+        <f>D5-2723</f>
+        <v>0.11483039954009655</v>
+      </c>
+      <c r="G5" s="1">
+        <f>E5-2724</f>
+        <v>0.21938195136999639</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
         <v>44644.590277777781</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="4">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="13">
         <f t="shared" si="0"/>
         <v>0.22954535499999998</v>
       </c>
+      <c r="D6" s="1">
+        <v>2723.11891567065</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2724.1876927765502</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" ref="F6:F14" si="1">D6-2723</f>
+        <v>0.11891567065003983</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" ref="G6:G14" si="2">E6-2724</f>
+        <v>0.18769277655019323</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
         <v>44652.649305555555</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="4">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="13">
         <f t="shared" si="0"/>
         <v>0.24720269</v>
       </c>
+      <c r="D7" s="1">
+        <v>2723.1198886716102</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2724.2116046081501</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11988867161016969</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="2"/>
+        <v>0.21160460815008264</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
         <v>44657.770833333336</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="5">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="14">
         <f t="shared" si="0"/>
         <v>0.60034938999999998</v>
       </c>
+      <c r="D8" s="1">
+        <v>2723.1282458167602</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2724.22928856722</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12824581676022717</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="2"/>
+        <v>0.22928856722001001</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
         <v>44660.756944444445</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="6">
         <v>1.8599999999999998E-2</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="13">
         <f>B9*35.31467</f>
         <v>0.65685286199999993</v>
       </c>
+      <c r="D9" s="1">
+        <v>2723.1325243551901</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2724.2349266412298</v>
+      </c>
+      <c r="F9" s="19">
+        <f t="shared" si="1"/>
+        <v>0.13252435519007122</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="2"/>
+        <v>0.23492664122977658</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
         <v>44662.597222222219</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="6">
         <f>AVERAGE(0.0213,0.0315)</f>
         <v>2.64E-2</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="13">
         <f t="shared" si="0"/>
         <v>0.93230728799999996</v>
       </c>
+      <c r="D10" s="1">
+        <v>2723.13232442349</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2724.2395950464802</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.13232442348999029</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.23959504648018992</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
         <v>44761.75</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="4">
         <v>1.865E-2</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="13">
         <f t="shared" si="0"/>
         <v>0.65861859550000001</v>
       </c>
+      <c r="D11" s="1">
+        <v>2723.1223958589699</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2724.2282386455099</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12239585896986682</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.22823864550991857</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
         <v>44783.604166666664</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="4">
         <v>3.7650000000000003E-2</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="13">
         <f t="shared" si="0"/>
         <v>1.3295973255</v>
       </c>
+      <c r="D12" s="1">
+        <v>2723.1352314742599</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2724.2428136666099</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.13523147425985371</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="2"/>
+        <v>0.24281366660989079</v>
+      </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
         <v>44792.559027777781</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="4">
         <v>3.1300000000000001E-2</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="13">
         <f t="shared" si="0"/>
         <v>1.1053491710000001</v>
       </c>
+      <c r="D13" s="1">
+        <v>2723.1311528675301</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2724.2375654594198</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.13115286753009059</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.23756545941978402</v>
+      </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
         <v>44796.6875</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="5">
         <v>4.3450000000000003E-2</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="14">
         <f t="shared" si="0"/>
         <v>1.5344224115</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2723.1346516723202</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2724.2434034651301</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.13465167232016029</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.24340346513008626</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D15" s="17" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Rating Curve/LaJara_RatingCurve_Definitive.xlsx
+++ b/Rating Curve/LaJara_RatingCurve_Definitive.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\La_Jara\Rating Curve\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\La_Jara\Rating Curve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7F0995-B41B-4A37-8ED9-81BE3B0B0768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11110063-115E-4D22-9730-9864A108F618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="360" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="rating curve" sheetId="1" r:id="rId1"/>
+    <sheet name="discharge calculations" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
   <si>
     <t>Discharge (m3/s)</t>
   </si>
@@ -64,16 +65,27 @@
   <si>
     <t>P3 - 2724</t>
   </si>
+  <si>
+    <t>WC P2 (cm)</t>
+  </si>
+  <si>
+    <t>WC P3 (cm)</t>
+  </si>
+  <si>
+    <t>manually calculated WSE - to check calculations</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="170" formatCode="0.000000"/>
+    <numFmt numFmtId="171" formatCode="0.00000"/>
+    <numFmt numFmtId="172" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,13 +121,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <sz val="11"/>
@@ -125,7 +130,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,8 +149,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -168,11 +179,193 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -195,18 +388,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -216,17 +397,149 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -261,530 +574,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>P2C</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.28238658029719294"/>
-                  <c:y val="-2.5160066820838115E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$F$5:$F$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.11483039954009655</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.11891567065003983</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.11988867161016969</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.12824581676022717</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.13252435519007122</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.13232442348999029</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.12239585896986682</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.13523147425985371</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.13115286753009059</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.13465167232016029</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$5:$C$14</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.31430056299999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.22954535499999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.24720269</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.60034938999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.65685286199999993</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.93230728799999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.65861859550000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.3295973255</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1053491710000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.5344224115</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-22FE-4639-BFE0-E7DC25DE85F4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="212613951"/>
-        <c:axId val="1372551295"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="212613951"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-AR"/>
-                  <a:t>WSE (m) +2723</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1372551295"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1372551295"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-AR"/>
-                  <a:t>Q (cfs)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="212613951"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -805,7 +594,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>P3C</a:t>
+              <a:t>P3C - WSE</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -835,7 +624,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -900,8 +689,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.28238658029719294"/>
-                  <c:y val="-2.5160066820838115E-2"/>
+                  <c:x val="-0.22257534890698866"/>
+                  <c:y val="8.6608731107318024E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -929,19 +718,19 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$5:$G$14</c:f>
+              <c:f>'rating curve'!$G$5:$G$20</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.21938195136999639</c:v>
+                  <c:v>0.22229095763987061</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.18769277655019323</c:v>
@@ -969,16 +758,34 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.24340346513008626</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.34661820646988417</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3448688040698471</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.33495219163978618</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.33845099642985588</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.26847490060981727</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.26556589433994304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$5:$C$14</c:f>
+              <c:f>'rating curve'!$C$5:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0.31430056299999998</c:v>
                 </c:pt>
@@ -1008,6 +815,24 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.5344224115</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.1512206750000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.9893680319999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.6532838280000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.8333886450000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1611463496000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8363628399999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1103,11 +928,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1141,7 +966,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1372551295"/>
@@ -1220,7 +1045,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1258,7 +1083,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="212613951"/>
@@ -1306,7 +1131,2619 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>P2C - WSE</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.22257534890698866"/>
+                  <c:y val="8.6608731107318024E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'rating curve'!$F$5:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.11638986681009555</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11755946726998445</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11988867161016969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12824581676022717</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13329409224979827</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13505349122988264</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12240585554991412</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12998326707020169</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12881366660985805</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13465167232016029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13756067859003451</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.13406187379996481</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14514808668991463</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.8494023950024712E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.9083822470220184E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'rating curve'!$C$5:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.31430056299999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22954535499999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24720269</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60034938999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65685286199999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93230728799999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65861859550000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3295973255</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1053491710000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5344224115</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.1512206750000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.9893680319999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.6532838280000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.8333886450000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1611463496000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8363628399999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D7B0-4A82-ABAD-6BCA96C44077}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="212613951"/>
+        <c:axId val="1372551295"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="212613951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>WSE (m) +2724</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1372551295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1372551295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Q (cfs)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="212613951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>P2C - WSE</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>2023</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10619514699301889"/>
+                  <c:y val="6.5540067875745012E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'rating curve'!$F$15:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.13756067859003451</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13406187379996481</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14514808668991463</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.8494023950024712E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.9083822470220184E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'rating curve'!$C$15:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.1512206750000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9893680319999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6532838280000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8333886450000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1611463496000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8363628399999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-312D-4106-B589-E8DADAC2D701}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2022&amp;2021</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.25435570965412924"/>
+                  <c:y val="-7.9857932627926592E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'rating curve'!$F$5:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.11638986681009555</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11755946726998445</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11988867161016969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12824581676022717</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13329409224979827</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13505349122988264</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12240585554991412</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12998326707020169</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12881366660985805</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13465167232016029</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'rating curve'!$C$5:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.31430056299999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22954535499999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24720269</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60034938999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65685286199999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93230728799999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65861859550000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3295973255</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1053491710000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5344224115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-312D-4106-B589-E8DADAC2D701}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="212613951"/>
+        <c:axId val="1372551295"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="212613951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>WSE (m) +2724</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1372551295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1372551295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Q (cfs)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="212613951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>P2C - WSE</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.19131164057331257"/>
+                  <c:y val="2.9904223771899663E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'rating curve'!$L$5:$L$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.11638986681964525</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1175594672781699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11988867161062444</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12824581676841262</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1332940922529815</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13505349123352062</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12240585555582584</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12998326707474916</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12881366661576976</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13465167232425301</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20756067859338145</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.20406187380240226</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2151480866973543</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.16849402395519064</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.1690838224772051</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'rating curve'!$C$5:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.31430056299999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22954535499999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24720269</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60034938999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65685286199999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93230728799999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65861859550000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3295973255</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1053491710000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5344224115</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.1512206750000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.9893680319999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.6532838280000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.8333886450000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1611463496000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8363628399999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4317-4BF7-B644-2D0FD8A64208}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="212613951"/>
+        <c:axId val="1372551295"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="212613951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>WSE (m) +2724</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1372551295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1372551295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Q (cfs)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="212613951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>P2C - WSE</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>2023</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10619514699301889"/>
+                  <c:y val="6.5540067875745012E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'rating curve'!$F$15:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.13756067859003451</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13406187379996481</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14514808668991463</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.8494023950024712E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.9083822470220184E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'rating curve'!$C$15:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.1512206750000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9893680319999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6532838280000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8333886450000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1611463496000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8363628399999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FD7C-4BCD-B44B-5C844835E2D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.26410619624508264"/>
+                  <c:y val="-7.4781242629805372E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'rating curve'!$L$5:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.11638986681964525</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1175594672781699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11988867161062444</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12824581676841262</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1332940922529815</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13505349123352062</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12240585555582584</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12998326707474916</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12881366661576976</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13465167232425301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'rating curve'!$C$5:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.31430056299999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22954535499999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24720269</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60034938999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65685286199999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93230728799999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65861859550000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3295973255</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1053491710000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5344224115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FD7C-4BCD-B44B-5C844835E2D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="212613951"/>
+        <c:axId val="1372551295"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="212613951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>WSE (m) +2724</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1372551295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1372551295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Q (cfs)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="212613951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1397,6 +3834,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2429,56 +4986,1568 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>450430</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>93760</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>788504</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>48537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>601069</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>122700</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00C3C2C5-CC3E-FE89-FF0E-FA94129C8328}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>854766</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>123080</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>342796</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>148210</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>612912</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>73667</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2499,7 +6568,159 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>563217</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>619537</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>66543</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF505157-3A70-4DB0-B201-3E8028A8EECF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>596348</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>652668</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>132804</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F825FE2-2238-4195-9B8E-C3BD7FC42C7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>8283</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>163995</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>66543</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BF5C546-01C0-4CF4-A2A3-397B92B067CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>16566</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>140805</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>172278</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>165935</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF2988E2-4615-4CDC-A9CD-89A0E627FDDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2771,10 +6992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2784,11 +7005,16 @@
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="19.140625" customWidth="1"/>
     <col min="5" max="5" width="21.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -2798,342 +7024,965 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="16"/>
+      <c r="H1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="I1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="22">
         <v>44401.625</v>
       </c>
       <c r="B2" s="2">
         <v>1.3299999999999999E-2</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="9">
         <f>B2*35.31467</f>
         <v>0.46968511099999999</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="11" t="s">
         <v>6</v>
       </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
         <v>44403.736111111109</v>
       </c>
       <c r="B3" s="2">
         <v>2.3900000000000001E-2</v>
       </c>
-      <c r="C3" s="13">
-        <f t="shared" ref="C3:C14" si="0">B3*35.31467</f>
+      <c r="C3" s="9">
+        <f t="shared" ref="C3:C19" si="0">B3*35.31467</f>
         <v>0.84402061299999998</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="11" t="s">
         <v>6</v>
       </c>
+      <c r="H3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
         <v>44404.800000000003</v>
       </c>
       <c r="B4" s="3">
         <v>2.6100000000000002E-2</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="9">
         <f t="shared" si="0"/>
         <v>0.92171288700000009</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="12" t="s">
         <v>8</v>
       </c>
+      <c r="H4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
         <v>44415.854166666664</v>
       </c>
       <c r="B5" s="2">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="9">
         <f t="shared" si="0"/>
         <v>0.31430056299999998</v>
       </c>
-      <c r="D5" s="1">
-        <v>2723.1148303995401</v>
-      </c>
-      <c r="E5" s="15">
-        <v>2724.21938195137</v>
-      </c>
-      <c r="F5" s="1">
-        <f>D5-2723</f>
-        <v>0.11483039954009655</v>
-      </c>
-      <c r="G5" s="1">
-        <f>E5-2724</f>
-        <v>0.21938195136999639</v>
+      <c r="D5" s="19">
+        <v>3.8986681957173801E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>11.429095764525901</v>
+      </c>
+      <c r="F5" s="17">
+        <f>H5-2723</f>
+        <v>0.11638986681009555</v>
+      </c>
+      <c r="G5" s="19">
+        <f>I5-2724</f>
+        <v>0.22229095763987061</v>
+      </c>
+      <c r="H5" s="19">
+        <v>2723.1163898668101</v>
+      </c>
+      <c r="I5" s="19">
+        <v>2724.2222909576399</v>
+      </c>
+      <c r="J5" s="44">
+        <f>2723.509-0.393+(D5/100)</f>
+        <v>2723.1163898668196</v>
+      </c>
+      <c r="K5" s="14">
+        <f>2724.488-0.38+(E5/100)</f>
+        <v>2724.2222909576449</v>
+      </c>
+      <c r="L5" s="19">
+        <f>J5-2723</f>
+        <v>0.11638986681964525</v>
+      </c>
+      <c r="M5" s="19">
+        <f>K5-2724</f>
+        <v>0.22229095764487283</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="24">
         <v>44644.590277777781</v>
       </c>
       <c r="B6" s="4">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="9">
         <f t="shared" si="0"/>
         <v>0.22954535499999998</v>
       </c>
-      <c r="D6" s="1">
-        <v>2723.11891567065</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D6" s="19">
+        <v>0.15594672782869501</v>
+      </c>
+      <c r="E6" s="19">
+        <v>7.96927765545359</v>
+      </c>
+      <c r="F6" s="17">
+        <f>H6-2723</f>
+        <v>0.11755946726998445</v>
+      </c>
+      <c r="G6" s="19">
+        <f t="shared" ref="G6:G14" si="1">I6-2724</f>
+        <v>0.18769277655019323</v>
+      </c>
+      <c r="H6" s="19">
+        <v>2723.11755946727</v>
+      </c>
+      <c r="I6" s="19">
         <v>2724.1876927765502</v>
       </c>
-      <c r="F6" s="1">
-        <f t="shared" ref="F6:F14" si="1">D6-2723</f>
-        <v>0.11891567065003983</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" ref="G6:G14" si="2">E6-2724</f>
-        <v>0.18769277655019323</v>
+      <c r="J6" s="44">
+        <f t="shared" ref="J6:J10" si="2">2723.509-0.393+(D6/100)</f>
+        <v>2723.1175594672782</v>
+      </c>
+      <c r="K6" s="14">
+        <f t="shared" ref="K6:K10" si="3">2724.488-0.38+(E6/100)</f>
+        <v>2724.1876927765543</v>
+      </c>
+      <c r="L6" s="19">
+        <f t="shared" ref="L6:L20" si="4">J6-2723</f>
+        <v>0.1175594672781699</v>
+      </c>
+      <c r="M6" s="19">
+        <f t="shared" ref="M6:M20" si="5">K6-2724</f>
+        <v>0.18769277655428596</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="24">
         <v>44652.649305555555</v>
       </c>
       <c r="B7" s="4">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="9">
         <f t="shared" si="0"/>
         <v>0.24720269</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="19">
+        <v>0.38886716106015201</v>
+      </c>
+      <c r="E7" s="19">
+        <v>10.360460815494401</v>
+      </c>
+      <c r="F7" s="17">
+        <f t="shared" ref="F7:F10" si="6">H7-2723</f>
+        <v>0.11988867161016969</v>
+      </c>
+      <c r="G7" s="19">
+        <f t="shared" si="1"/>
+        <v>0.21160460815008264</v>
+      </c>
+      <c r="H7" s="19">
         <v>2723.1198886716102</v>
       </c>
-      <c r="E7" s="1">
+      <c r="I7" s="19">
         <v>2724.2116046081501</v>
       </c>
-      <c r="F7" s="1">
-        <f t="shared" si="1"/>
-        <v>0.11988867161016969</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="J7" s="44">
         <f t="shared" si="2"/>
-        <v>0.21160460815008264</v>
+        <v>2723.1198886716106</v>
+      </c>
+      <c r="K7" s="14">
+        <f t="shared" si="3"/>
+        <v>2724.2116046081546</v>
+      </c>
+      <c r="L7" s="19">
+        <f t="shared" si="4"/>
+        <v>0.11988867161062444</v>
+      </c>
+      <c r="M7" s="19">
+        <f t="shared" si="5"/>
+        <v>0.21160460815463011</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="25">
         <v>44657.770833333336</v>
       </c>
       <c r="B8" s="5">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="10">
         <f t="shared" si="0"/>
         <v>0.60034938999999998</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="19">
+        <v>1.2245816768603599</v>
+      </c>
+      <c r="E8" s="19">
+        <v>12.1288567227319</v>
+      </c>
+      <c r="F8" s="17">
+        <f t="shared" si="6"/>
+        <v>0.12824581676022717</v>
+      </c>
+      <c r="G8" s="19">
+        <f t="shared" si="1"/>
+        <v>0.22928856722001001</v>
+      </c>
+      <c r="H8" s="18">
         <v>2723.1282458167602</v>
       </c>
-      <c r="E8" s="1">
+      <c r="I8" s="19">
         <v>2724.22928856722</v>
       </c>
-      <c r="F8" s="1">
-        <f t="shared" si="1"/>
-        <v>0.12824581676022717</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="J8" s="49">
         <f t="shared" si="2"/>
-        <v>0.22928856722001001</v>
+        <v>2723.1282458167684</v>
+      </c>
+      <c r="K8" s="14">
+        <f t="shared" si="3"/>
+        <v>2724.2292885672268</v>
+      </c>
+      <c r="L8" s="19">
+        <f t="shared" si="4"/>
+        <v>0.12824581676841262</v>
+      </c>
+      <c r="M8" s="19">
+        <f t="shared" si="5"/>
+        <v>0.22928856722683122</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="24">
         <v>44660.756944444445</v>
       </c>
       <c r="B9" s="6">
         <v>1.8599999999999998E-2</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="9">
         <f>B9*35.31467</f>
         <v>0.65685286199999993</v>
       </c>
-      <c r="D9" s="1">
-        <v>2723.1325243551901</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="D9" s="19">
+        <v>1.7294092252802</v>
+      </c>
+      <c r="E9" s="19">
+        <v>12.6926641233435</v>
+      </c>
+      <c r="F9" s="17">
+        <f>H9-2723</f>
+        <v>0.13329409224979827</v>
+      </c>
+      <c r="G9" s="19">
+        <f t="shared" si="1"/>
+        <v>0.23492664122977658</v>
+      </c>
+      <c r="H9" s="18">
+        <v>2723.1332940922498</v>
+      </c>
+      <c r="I9" s="19">
         <v>2724.2349266412298</v>
       </c>
-      <c r="F9" s="19">
-        <f t="shared" si="1"/>
-        <v>0.13252435519007122</v>
-      </c>
-      <c r="G9" s="1">
-        <f t="shared" si="2"/>
-        <v>0.23492664122977658</v>
+      <c r="J9" s="44">
+        <f>2723.509-0.393+(D9/100)</f>
+        <v>2723.133294092253</v>
+      </c>
+      <c r="K9" s="14">
+        <f t="shared" si="3"/>
+        <v>2724.234926641233</v>
+      </c>
+      <c r="L9" s="19">
+        <f>J9-2723</f>
+        <v>0.1332940922529815</v>
+      </c>
+      <c r="M9" s="19">
+        <f t="shared" si="5"/>
+        <v>0.23492664123295981</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="27">
         <v>44662.597222222219</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="28">
         <f>AVERAGE(0.0213,0.0315)</f>
         <v>2.64E-2</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="29">
         <f t="shared" si="0"/>
         <v>0.93230728799999996</v>
       </c>
-      <c r="D10" s="1">
-        <v>2723.13232442349</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D10" s="20">
+        <v>1.90534912334358</v>
+      </c>
+      <c r="E10" s="30">
+        <v>13.159504648318</v>
+      </c>
+      <c r="F10" s="52">
+        <f t="shared" si="6"/>
+        <v>0.13505349122988264</v>
+      </c>
+      <c r="G10" s="30">
+        <f t="shared" si="1"/>
+        <v>0.23959504648018992</v>
+      </c>
+      <c r="H10" s="48">
+        <v>2723.1350534912299</v>
+      </c>
+      <c r="I10" s="30">
         <v>2724.2395950464802</v>
       </c>
-      <c r="F10" s="1">
-        <f t="shared" si="1"/>
-        <v>0.13232442348999029</v>
-      </c>
-      <c r="G10" s="1">
-        <f t="shared" si="2"/>
-        <v>0.23959504648018992</v>
+      <c r="J10" s="44">
+        <f>2723.509-0.393+(D10/100)</f>
+        <v>2723.1350534912335</v>
+      </c>
+      <c r="K10" s="53">
+        <f t="shared" si="3"/>
+        <v>2724.2395950464829</v>
+      </c>
+      <c r="L10" s="30">
+        <f t="shared" si="4"/>
+        <v>0.13505349123352062</v>
+      </c>
+      <c r="M10" s="30">
+        <f t="shared" si="5"/>
+        <v>0.23959504648291841</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="31">
         <v>44761.75</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="32">
         <v>1.865E-2</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="33">
         <f t="shared" si="0"/>
         <v>0.65861859550000001</v>
       </c>
-      <c r="D11" s="1">
-        <v>2723.1223958589699</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D11" s="34">
+        <v>4.1405855555556004</v>
+      </c>
+      <c r="E11" s="34">
+        <v>3.32386455147812</v>
+      </c>
+      <c r="F11" s="50">
+        <f>H11-2723</f>
+        <v>0.12240585554991412</v>
+      </c>
+      <c r="G11" s="34">
+        <f t="shared" si="1"/>
+        <v>0.22823864550991857</v>
+      </c>
+      <c r="H11" s="33">
+        <v>2723.1224058555499</v>
+      </c>
+      <c r="I11" s="34">
         <v>2724.2282386455099</v>
       </c>
-      <c r="F11" s="1">
-        <f t="shared" si="1"/>
-        <v>0.12239585896986682</v>
-      </c>
-      <c r="G11" s="1">
-        <f t="shared" si="2"/>
-        <v>0.22823864550991857</v>
+      <c r="J11" s="45">
+        <f>2723.509-0.428+(D11/100)</f>
+        <v>2723.1224058555558</v>
+      </c>
+      <c r="K11" s="58">
+        <f>2724.488-0.293+(E11/100)</f>
+        <v>2724.2282386455145</v>
+      </c>
+      <c r="L11" s="34">
+        <f t="shared" si="4"/>
+        <v>0.12240585555582584</v>
+      </c>
+      <c r="M11" s="54">
+        <f t="shared" si="5"/>
+        <v>0.22823864551446604</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="35">
         <v>44783.604166666664</v>
       </c>
       <c r="B12" s="4">
         <v>3.7650000000000003E-2</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="9">
         <f t="shared" si="0"/>
         <v>1.3295973255</v>
       </c>
-      <c r="D12" s="1">
-        <v>2723.1352314742599</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="D12" s="19">
+        <v>4.8983267074413597</v>
+      </c>
+      <c r="E12" s="19">
+        <v>4.78136666156984</v>
+      </c>
+      <c r="F12" s="17">
+        <f t="shared" ref="F12:F17" si="7">H12-2723</f>
+        <v>0.12998326707020169</v>
+      </c>
+      <c r="G12" s="19">
+        <f t="shared" si="1"/>
+        <v>0.24281366660989079</v>
+      </c>
+      <c r="H12" s="9">
+        <v>2723.1299832670702</v>
+      </c>
+      <c r="I12" s="19">
         <v>2724.2428136666099</v>
       </c>
-      <c r="F12" s="1">
-        <f t="shared" si="1"/>
-        <v>0.13523147425985371</v>
-      </c>
-      <c r="G12" s="1">
-        <f t="shared" si="2"/>
-        <v>0.24281366660989079</v>
+      <c r="J12" s="46">
+        <f t="shared" ref="J12:J14" si="8">2723.509-0.428+(D12/100)</f>
+        <v>2723.1299832670747</v>
+      </c>
+      <c r="K12" s="14">
+        <f t="shared" ref="K12:K20" si="9">2724.488-0.293+(E12/100)</f>
+        <v>2724.2428136666153</v>
+      </c>
+      <c r="L12" s="19">
+        <f t="shared" si="4"/>
+        <v>0.12998326707474916</v>
+      </c>
+      <c r="M12" s="55">
+        <f t="shared" si="5"/>
+        <v>0.24281366661534776</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="35">
         <v>44792.559027777781</v>
       </c>
       <c r="B13" s="4">
         <v>3.1300000000000001E-2</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="9">
         <f t="shared" si="0"/>
         <v>1.1053491710000001</v>
       </c>
-      <c r="D13" s="1">
-        <v>2723.1311528675301</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="D13" s="19">
+        <v>4.78136666156984</v>
+      </c>
+      <c r="E13" s="19">
+        <v>4.2565459429154302</v>
+      </c>
+      <c r="F13" s="17">
+        <f t="shared" si="7"/>
+        <v>0.12881366660985805</v>
+      </c>
+      <c r="G13" s="19">
+        <f t="shared" si="1"/>
+        <v>0.23756545941978402</v>
+      </c>
+      <c r="H13" s="9">
+        <v>2723.1288136666099</v>
+      </c>
+      <c r="I13" s="19">
         <v>2724.2375654594198</v>
       </c>
-      <c r="F13" s="1">
-        <f t="shared" si="1"/>
-        <v>0.13115286753009059</v>
-      </c>
-      <c r="G13" s="1">
-        <f t="shared" si="2"/>
-        <v>0.23756545941978402</v>
+      <c r="J13" s="46">
+        <f t="shared" si="8"/>
+        <v>2723.1288136666158</v>
+      </c>
+      <c r="K13" s="14">
+        <f t="shared" si="9"/>
+        <v>2724.2375654594289</v>
+      </c>
+      <c r="L13" s="19">
+        <f t="shared" si="4"/>
+        <v>0.12881366661576976</v>
+      </c>
+      <c r="M13" s="55">
+        <f t="shared" si="5"/>
+        <v>0.23756545942887897</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="36">
         <v>44796.6875</v>
       </c>
       <c r="B14" s="5">
         <v>4.3450000000000003E-2</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="10">
         <f t="shared" si="0"/>
         <v>1.5344224115</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="19">
+        <v>5.3651672324159696</v>
+      </c>
+      <c r="E14" s="19">
+        <v>4.8403465137614496</v>
+      </c>
+      <c r="F14" s="17">
+        <f t="shared" si="7"/>
+        <v>0.13465167232016029</v>
+      </c>
+      <c r="G14" s="19">
+        <f t="shared" si="1"/>
+        <v>0.24340346513008626</v>
+      </c>
+      <c r="H14" s="9">
         <v>2723.1346516723202</v>
       </c>
-      <c r="E14" s="1">
+      <c r="I14" s="19">
         <v>2724.2434034651301</v>
       </c>
-      <c r="F14" s="1">
-        <f t="shared" si="1"/>
-        <v>0.13465167232016029</v>
-      </c>
-      <c r="G14" s="1">
-        <f t="shared" si="2"/>
-        <v>0.24340346513008626</v>
+      <c r="J14" s="46">
+        <f t="shared" si="8"/>
+        <v>2723.1346516723243</v>
+      </c>
+      <c r="K14" s="14">
+        <f t="shared" si="9"/>
+        <v>2724.2434034651374</v>
+      </c>
+      <c r="L14" s="19">
+        <f t="shared" si="4"/>
+        <v>0.13465167232425301</v>
+      </c>
+      <c r="M14" s="55">
+        <f t="shared" si="5"/>
+        <v>0.24340346513736222</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D15" s="17" t="s">
-        <v>5</v>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="37">
+        <v>45041.638888888891</v>
+      </c>
+      <c r="B15" s="21">
+        <v>0.20250000000000001</v>
+      </c>
+      <c r="C15" s="13">
+        <f t="shared" si="0"/>
+        <v>7.1512206750000002</v>
+      </c>
+      <c r="D15" s="19">
+        <f>F38+7</f>
+        <v>12.65606785932723</v>
+      </c>
+      <c r="E15" s="19">
+        <v>15.1618206472987</v>
+      </c>
+      <c r="F15" s="17">
+        <f t="shared" si="7"/>
+        <v>0.13756067859003451</v>
+      </c>
+      <c r="G15" s="19">
+        <f>I15-2724</f>
+        <v>0.34661820646988417</v>
+      </c>
+      <c r="H15" s="46">
+        <v>2723.13756067859</v>
+      </c>
+      <c r="I15" s="19">
+        <v>2724.3466182064699</v>
+      </c>
+      <c r="J15" s="46">
+        <f>2723.509-0.428+(D15/100)</f>
+        <v>2723.2075606785934</v>
+      </c>
+      <c r="K15" s="14">
+        <f t="shared" si="9"/>
+        <v>2724.3466182064726</v>
+      </c>
+      <c r="L15" s="19">
+        <f t="shared" si="4"/>
+        <v>0.20756067859338145</v>
+      </c>
+      <c r="M15" s="55">
+        <f t="shared" si="5"/>
+        <v>0.34661820647261266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="37">
+        <v>45041.680555555555</v>
+      </c>
+      <c r="B16" s="21">
+        <v>0.1696</v>
+      </c>
+      <c r="C16" s="13">
+        <f t="shared" si="0"/>
+        <v>5.9893680319999998</v>
+      </c>
+      <c r="D16" s="19">
+        <f>F39+7</f>
+        <v>12.30618738022425</v>
+      </c>
+      <c r="E16" s="19">
+        <v>14.986880407747201</v>
+      </c>
+      <c r="F16" s="17">
+        <f t="shared" si="7"/>
+        <v>0.13406187379996481</v>
+      </c>
+      <c r="G16" s="19">
+        <f t="shared" ref="G16:G20" si="10">I16-2724</f>
+        <v>0.3448688040698471</v>
+      </c>
+      <c r="H16" s="9">
+        <v>2723.1340618738</v>
+      </c>
+      <c r="I16" s="19">
+        <v>2724.3448688040698</v>
+      </c>
+      <c r="J16" s="46">
+        <f t="shared" ref="J16:J20" si="11">2723.509-0.428+(D16/100)</f>
+        <v>2723.2040618738024</v>
+      </c>
+      <c r="K16" s="14">
+        <f t="shared" si="9"/>
+        <v>2724.3448688040771</v>
+      </c>
+      <c r="L16" s="19">
+        <f t="shared" si="4"/>
+        <v>0.20406187380240226</v>
+      </c>
+      <c r="M16" s="55">
+        <f t="shared" si="5"/>
+        <v>0.34486880407712306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="37">
+        <v>45042.569444444445</v>
+      </c>
+      <c r="B17" s="21">
+        <v>0.18840000000000001</v>
+      </c>
+      <c r="C17" s="13">
+        <f t="shared" si="0"/>
+        <v>6.6532838280000002</v>
+      </c>
+      <c r="D17" s="19">
+        <f>F40+7</f>
+        <v>13.414808669724799</v>
+      </c>
+      <c r="E17" s="19">
+        <v>13.9952191641182</v>
+      </c>
+      <c r="F17" s="17">
+        <f t="shared" si="7"/>
+        <v>0.14514808668991463</v>
+      </c>
+      <c r="G17" s="19">
+        <f t="shared" si="10"/>
+        <v>0.33495219163978618</v>
+      </c>
+      <c r="H17" s="9">
+        <v>2723.1451480866899</v>
+      </c>
+      <c r="I17" s="19">
+        <v>2724.3349521916398</v>
+      </c>
+      <c r="J17" s="46">
+        <f t="shared" si="11"/>
+        <v>2723.2151480866974</v>
+      </c>
+      <c r="K17" s="14">
+        <f t="shared" si="9"/>
+        <v>2724.3349521916407</v>
+      </c>
+      <c r="L17" s="19">
+        <f t="shared" si="4"/>
+        <v>0.2151480866973543</v>
+      </c>
+      <c r="M17" s="55">
+        <f t="shared" si="5"/>
+        <v>0.33495219164069567</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="37">
+        <v>45045.583333333336</v>
+      </c>
+      <c r="B18" s="21">
+        <v>0.19350000000000001</v>
+      </c>
+      <c r="C18" s="13">
+        <f t="shared" si="0"/>
+        <v>6.8333886450000003</v>
+      </c>
+      <c r="D18" s="19">
+        <f>F41+7</f>
+        <v>20.353438399592299</v>
+      </c>
+      <c r="E18" s="19">
+        <v>14.3450996432212</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="19">
+        <f t="shared" si="10"/>
+        <v>0.33845099642985588</v>
+      </c>
+      <c r="H18" s="9">
+        <v>2723.2145343839902</v>
+      </c>
+      <c r="I18" s="19">
+        <v>2724.3384509964299</v>
+      </c>
+      <c r="J18" s="46">
+        <f t="shared" si="11"/>
+        <v>2723.2845343839958</v>
+      </c>
+      <c r="K18" s="14">
+        <f t="shared" si="9"/>
+        <v>2724.3384509964321</v>
+      </c>
+      <c r="L18" s="19"/>
+      <c r="M18" s="55">
+        <f t="shared" si="5"/>
+        <v>0.33845099643212961</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="37">
+        <v>45094.776388888888</v>
+      </c>
+      <c r="B19" s="21">
+        <v>3.288E-2</v>
+      </c>
+      <c r="C19" s="13">
+        <f t="shared" si="0"/>
+        <v>1.1611463496000001</v>
+      </c>
+      <c r="D19" s="19">
+        <f>F42+7</f>
+        <v>8.7494023955147799</v>
+      </c>
+      <c r="E19" s="19">
+        <v>7.3474900611620999</v>
+      </c>
+      <c r="F19" s="17">
+        <f t="shared" ref="F16:F19" si="12">H19-2723</f>
+        <v>9.8494023950024712E-2</v>
+      </c>
+      <c r="G19" s="19">
+        <f t="shared" si="10"/>
+        <v>0.26847490060981727</v>
+      </c>
+      <c r="H19" s="9">
+        <v>2723.09849402395</v>
+      </c>
+      <c r="I19" s="19">
+        <v>2724.2684749006098</v>
+      </c>
+      <c r="J19" s="46">
+        <f t="shared" si="11"/>
+        <v>2723.1684940239552</v>
+      </c>
+      <c r="K19" s="14">
+        <f t="shared" si="9"/>
+        <v>2724.2684749006112</v>
+      </c>
+      <c r="L19" s="19">
+        <f t="shared" si="4"/>
+        <v>0.16849402395519064</v>
+      </c>
+      <c r="M19" s="55">
+        <f t="shared" si="5"/>
+        <v>0.26847490061118151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="38">
+        <v>45106.743055555555</v>
+      </c>
+      <c r="B20" s="39">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="C20" s="40">
+        <f>B20*35.31467</f>
+        <v>1.8363628399999998</v>
+      </c>
+      <c r="D20" s="41">
+        <f>F43+7</f>
+        <v>8.8083822477063904</v>
+      </c>
+      <c r="E20" s="41">
+        <v>7.0565894342507303</v>
+      </c>
+      <c r="F20" s="51">
+        <v>9.9083822470220184E-2</v>
+      </c>
+      <c r="G20" s="41">
+        <f t="shared" si="10"/>
+        <v>0.26556589433994304</v>
+      </c>
+      <c r="H20" s="42">
+        <v>2723.0990838224702</v>
+      </c>
+      <c r="I20" s="41">
+        <v>2724.2655658943399</v>
+      </c>
+      <c r="J20" s="47">
+        <f t="shared" si="11"/>
+        <v>2723.1690838224772</v>
+      </c>
+      <c r="K20" s="56">
+        <f t="shared" si="9"/>
+        <v>2724.2655658943422</v>
+      </c>
+      <c r="L20" s="41">
+        <f t="shared" si="4"/>
+        <v>0.1690838224772051</v>
+      </c>
+      <c r="M20" s="57">
+        <f t="shared" si="5"/>
+        <v>0.26556589434221678</v>
+      </c>
+    </row>
+    <row r="37" spans="6:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F38" s="59">
+        <v>5.65606785932723</v>
+      </c>
+      <c r="G38" s="54">
+        <f>F38+7</f>
+        <v>12.65606785932723</v>
+      </c>
+    </row>
+    <row r="39" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F39" s="60">
+        <v>5.3061873802242498</v>
+      </c>
+      <c r="G39" s="55">
+        <f t="shared" ref="G39:G43" si="13">F39+7</f>
+        <v>12.30618738022425</v>
+      </c>
+    </row>
+    <row r="40" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F40" s="60">
+        <v>6.4148086697247999</v>
+      </c>
+      <c r="G40" s="55">
+        <f t="shared" si="13"/>
+        <v>13.414808669724799</v>
+      </c>
+    </row>
+    <row r="41" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F41" s="60">
+        <v>13.353438399592299</v>
+      </c>
+      <c r="G41" s="55">
+        <f t="shared" si="13"/>
+        <v>20.353438399592299</v>
+      </c>
+    </row>
+    <row r="42" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F42" s="60">
+        <v>1.7494023955147799</v>
+      </c>
+      <c r="G42" s="55">
+        <f t="shared" si="13"/>
+        <v>8.7494023955147799</v>
+      </c>
+    </row>
+    <row r="43" spans="6:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F43" s="61">
+        <v>1.80838224770639</v>
+      </c>
+      <c r="G43" s="57">
+        <f t="shared" si="13"/>
+        <v>8.8083822477063904</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F1:G2"/>
+    <mergeCell ref="J3:M3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB3BB155-2302-46CE-B8E9-E18B9B8C9845}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>